--- a/upload/laporanBarangRusak.xlsx
+++ b/upload/laporanBarangRusak.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
-  <si>
-    <t>Tanggal Complain :  06/01/2023  s/d  06/13/2023</t>
-  </si>
-  <si>
-    <t>Jenis Unit :  LP</t>
-  </si>
-  <si>
-    <t>Kode Unit :  A001</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+  <si>
+    <t>Tanggal Complain :  06/06/2023  s/d  06/14/2023</t>
+  </si>
+  <si>
+    <t>Jenis Unit :  semua</t>
+  </si>
+  <si>
+    <t>Kode Unit :  semua</t>
   </si>
   <si>
     <t>Rusak :  semua</t>
@@ -50,12 +50,30 @@
     <t>Teknisi</t>
   </si>
   <si>
+    <t>12-JUN-23</t>
+  </si>
+  <si>
+    <t>ZM23000068</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>A002</t>
+  </si>
+  <si>
+    <t>komputer tidak mau menyala</t>
+  </si>
+  <si>
+    <t>012646</t>
+  </si>
+  <si>
+    <t>11-JUN-23</t>
+  </si>
+  <si>
     <t>ZM23000062</t>
   </si>
   <si>
-    <t>LP</t>
-  </si>
-  <si>
     <t>A001</t>
   </si>
   <si>
@@ -65,10 +83,13 @@
     <t>015393</t>
   </si>
   <si>
-    <t>ZM23000061</t>
-  </si>
-  <si>
-    <t>laptop hang gabisa nyala</t>
+    <t>ZM23000067</t>
+  </si>
+  <si>
+    <t>laptop tidak mau mati</t>
+  </si>
+  <si>
+    <t>012694</t>
   </si>
 </sst>
 </file>
@@ -408,7 +429,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,42 +484,69 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/upload/laporanBarangRusak.xlsx
+++ b/upload/laporanBarangRusak.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
-  <si>
-    <t>Tanggal Complain :  06/06/2023  s/d  06/14/2023</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+  <si>
+    <t>Tanggal Complain :  01/13/2023  s/d  06/13/2023</t>
   </si>
   <si>
     <t>Jenis Unit :  semua</t>
@@ -68,6 +68,15 @@
     <t>012646</t>
   </si>
   <si>
+    <t>ZM23000067</t>
+  </si>
+  <si>
+    <t>laptop tidak mau mati</t>
+  </si>
+  <si>
+    <t>012694</t>
+  </si>
+  <si>
     <t>11-JUN-23</t>
   </si>
   <si>
@@ -83,13 +92,13 @@
     <t>015393</t>
   </si>
   <si>
-    <t>ZM23000067</t>
-  </si>
-  <si>
-    <t>laptop tidak mau mati</t>
-  </si>
-  <si>
-    <t>012694</t>
+    <t>ZM23000069</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>komputer blank</t>
   </si>
 </sst>
 </file>
@@ -429,7 +438,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,22 +517,22 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
         <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -531,22 +540,43 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
